--- a/doc/数据库设计-2018061400.xlsx
+++ b/doc/数据库设计-2018061400.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9264C9F9-9992-466B-A427-FEF7A470AB62}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEF368A-956D-4958-9385-0EA5433510FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="网络" sheetId="1" r:id="rId1"/>
-    <sheet name="传输流" sheetId="2" r:id="rId2"/>
-    <sheet name="业务" sheetId="3" r:id="rId3"/>
-    <sheet name="PID列表" sheetId="5" r:id="rId4"/>
-    <sheet name="业务群" sheetId="4" r:id="rId5"/>
+    <sheet name="实体-网络" sheetId="1" r:id="rId1"/>
+    <sheet name="实体-传输流" sheetId="2" r:id="rId2"/>
+    <sheet name="实体-业务" sheetId="3" r:id="rId3"/>
+    <sheet name="实体-PID列表" sheetId="5" r:id="rId4"/>
+    <sheet name="实体-业务群" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4A7AED-9FD8-4814-BEB8-BBCC96AC9E5A}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2AFCED-415A-4CFC-88E3-30ED5FB29877}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
